--- a/doc/reading_time_template.xlsx
+++ b/doc/reading_time_template.xlsx
@@ -44,14 +44,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +72,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -116,8 +123,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,7 +208,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -217,7 +228,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Readming time (ms)</a:t>
+              <a:t>Reading time (sec)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -249,6 +260,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -283,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4371.523182</c:v>
+                  <c:v>3.761909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2346.213155</c:v>
+                  <c:v>2.370661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1064.380454</c:v>
+                  <c:v>1.064254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>633.747278</c:v>
+                  <c:v>0.432273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,11 +313,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="73813476"/>
-        <c:axId val="24723181"/>
+        <c:axId val="2359193"/>
+        <c:axId val="97031264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73813476"/>
+        <c:axId val="2359193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -332,14 +345,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24723181"/>
+        <c:crossAx val="97031264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24723181"/>
+        <c:axId val="97031264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +367,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -376,7 +389,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73813476"/>
+        <c:crossAx val="2359193"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -413,9 +426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>714240</xdr:colOff>
+      <xdr:colOff>713880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -424,7 +437,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="99000" y="898920"/>
-        <a:ext cx="7841520" cy="4159440"/>
+        <a:ext cx="7840440" cy="4159080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -445,12 +458,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B5"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.57"/>
@@ -469,32 +482,32 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>4371.523182</v>
+      <c r="B2" s="1" t="n">
+        <v>3.761909</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>2346.213155</v>
+      <c r="B3" s="1" t="n">
+        <v>2.370661</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1064.380454</v>
+      <c r="B4" s="1" t="n">
+        <v>1.064254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>633.747278</v>
+      <c r="B5" s="1" t="n">
+        <v>0.432273</v>
       </c>
     </row>
   </sheetData>
